--- a/public/post/raw_data/0806.xlsx
+++ b/public/post/raw_data/0806.xlsx
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dplyr/ggplot/rmarkdown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>**</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,13 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>readr/readxl/tibble</t>
-  </si>
-  <si>
-    <t>readr/readxl/tibble</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,6 +186,18 @@
   </si>
   <si>
     <t>[Exploratory Data Analysis in R: Case Study](https://www.datacamp.com/courses/exploratory-data-analysis-in-r-case-study)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dply ggplot rmarkdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readr readxl tibble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readr readxl tibble</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +531,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -555,7 +556,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -566,7 +567,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -577,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -588,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -599,7 +600,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -607,35 +608,35 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -643,7 +644,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -651,79 +652,79 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
         <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/public/post/raw_data/0806.xlsx
+++ b/public/post/raw_data/0806.xlsx
@@ -133,14 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Data Manipulation in R with dplyr](https://www.datacamp.com/courses/dplyr-data-manipulation-r-tutorial)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Joining Data in R with dplyr](https://www.datacamp.com/courses/joining-data-in-r-with-dplyr)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[Data Visualization with ggplot2 (Part 1)](https://www.datacamp.com/courses/data-visualization-with-ggplot2-1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,6 +190,14 @@
   </si>
   <si>
     <t>readr readxl tibble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Data Manipulation in R with dplyr](https://campus.datacamp.com/courses/dplyr-data-manipulation-r-tutorial/chapter-one-introduction-to-dplyr-and-tbls?ex=1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Joining Data in R with dplyr](https://campus.datacamp.com/courses/joining-data-in-r-with-dplyr/mutating-joins?ex=1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +531,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -578,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -589,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -600,7 +600,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -608,10 +608,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -622,7 +622,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -633,7 +633,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -644,7 +644,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -655,7 +655,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -666,7 +666,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -674,10 +674,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -699,7 +699,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -710,7 +710,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -721,7 +721,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
